--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Crhr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H2">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I2">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J2">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.89063552361342</v>
+        <v>0.1067825</v>
       </c>
       <c r="N2">
-        <v>1.89063552361342</v>
+        <v>0.213565</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04558336310231677</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04327794159397949</v>
       </c>
       <c r="Q2">
-        <v>0.3589116391261837</v>
+        <v>0.02330887563583334</v>
       </c>
       <c r="R2">
-        <v>0.3589116391261837</v>
+        <v>0.139853253815</v>
       </c>
       <c r="S2">
-        <v>0.04382171057633114</v>
+        <v>0.001584343626855202</v>
       </c>
       <c r="T2">
-        <v>0.04382171057633114</v>
+        <v>0.002044007491464003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151579579749464</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H3">
-        <v>0.151579579749464</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I3">
-        <v>0.03499051191350164</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J3">
-        <v>0.03499051191350164</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.89063552361342</v>
+        <v>0.2495786666666667</v>
       </c>
       <c r="N3">
-        <v>1.89063552361342</v>
+        <v>0.7487360000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1065402569265446</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1517278246777788</v>
       </c>
       <c r="Q3">
-        <v>0.2865817381287301</v>
+        <v>0.05447894648177779</v>
       </c>
       <c r="R3">
-        <v>0.2865817381287301</v>
+        <v>0.4903105183360001</v>
       </c>
       <c r="S3">
-        <v>0.03499051191350164</v>
+        <v>0.003703025963358717</v>
       </c>
       <c r="T3">
-        <v>0.03499051191350164</v>
+        <v>0.007166071187361187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.432271503890719</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H4">
-        <v>0.432271503890719</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I4">
-        <v>0.09978521666147419</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J4">
-        <v>0.09978521666147419</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.89063552361342</v>
+        <v>1.986215</v>
       </c>
       <c r="N4">
-        <v>1.89063552361342</v>
+        <v>3.97243</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8478763799711385</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8049942337282417</v>
       </c>
       <c r="Q4">
-        <v>0.81726786110159</v>
+        <v>0.4335582929883334</v>
       </c>
       <c r="R4">
-        <v>0.81726786110159</v>
+        <v>2.60134975793</v>
       </c>
       <c r="S4">
-        <v>0.09978521666147419</v>
+        <v>0.02946968910462111</v>
       </c>
       <c r="T4">
-        <v>0.09978521666147419</v>
+        <v>0.03801969741912931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.247318</v>
+      </c>
+      <c r="H5">
+        <v>0.741954</v>
+      </c>
+      <c r="I5">
+        <v>0.03938016239857255</v>
+      </c>
+      <c r="J5">
+        <v>0.05351190010396521</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.1067825</v>
+      </c>
+      <c r="N5">
+        <v>0.213565</v>
+      </c>
+      <c r="O5">
+        <v>0.04558336310231677</v>
+      </c>
+      <c r="P5">
+        <v>0.04327794159397949</v>
+      </c>
+      <c r="Q5">
+        <v>0.026409234335</v>
+      </c>
+      <c r="R5">
+        <v>0.15845540601</v>
+      </c>
+      <c r="S5">
+        <v>0.001795080241642334</v>
+      </c>
+      <c r="T5">
+        <v>0.002315884887282271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.247318</v>
+      </c>
+      <c r="H6">
+        <v>0.741954</v>
+      </c>
+      <c r="I6">
+        <v>0.03938016239857255</v>
+      </c>
+      <c r="J6">
+        <v>0.05351190010396521</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2495786666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.7487360000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1065402569265446</v>
+      </c>
+      <c r="P6">
+        <v>0.1517278246777788</v>
+      </c>
+      <c r="Q6">
+        <v>0.06172529668266668</v>
+      </c>
+      <c r="R6">
+        <v>0.5555276701440001</v>
+      </c>
+      <c r="S6">
+        <v>0.004195572619752971</v>
+      </c>
+      <c r="T6">
+        <v>0.008119244197149246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.247318</v>
+      </c>
+      <c r="H7">
+        <v>0.741954</v>
+      </c>
+      <c r="I7">
+        <v>0.03938016239857255</v>
+      </c>
+      <c r="J7">
+        <v>0.05351190010396521</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.986215</v>
+      </c>
+      <c r="N7">
+        <v>3.97243</v>
+      </c>
+      <c r="O7">
+        <v>0.8478763799711385</v>
+      </c>
+      <c r="P7">
+        <v>0.8049942337282417</v>
+      </c>
+      <c r="Q7">
+        <v>0.4912267213700001</v>
+      </c>
+      <c r="R7">
+        <v>2.94736032822</v>
+      </c>
+      <c r="S7">
+        <v>0.03338950953717724</v>
+      </c>
+      <c r="T7">
+        <v>0.04307677101953369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2840816666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.852245</v>
+      </c>
+      <c r="I8">
+        <v>0.04523399901256879</v>
+      </c>
+      <c r="J8">
+        <v>0.06146641072641139</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.1067825</v>
+      </c>
+      <c r="N8">
+        <v>0.213565</v>
+      </c>
+      <c r="O8">
+        <v>0.04558336310231677</v>
+      </c>
+      <c r="P8">
+        <v>0.04327794159397949</v>
+      </c>
+      <c r="Q8">
+        <v>0.03033495057083333</v>
+      </c>
+      <c r="R8">
+        <v>0.182009703425</v>
+      </c>
+      <c r="S8">
+        <v>0.002061917801559761</v>
+      </c>
+      <c r="T8">
+        <v>0.002660139733409186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.55833190684287</v>
-      </c>
-      <c r="H5">
-        <v>3.55833190684287</v>
-      </c>
-      <c r="I5">
-        <v>0.8214025608486931</v>
-      </c>
-      <c r="J5">
-        <v>0.8214025608486931</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.89063552361342</v>
-      </c>
-      <c r="N5">
-        <v>1.89063552361342</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>6.727508707884209</v>
-      </c>
-      <c r="R5">
-        <v>6.727508707884209</v>
-      </c>
-      <c r="S5">
-        <v>0.8214025608486931</v>
-      </c>
-      <c r="T5">
-        <v>0.8214025608486931</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2840816666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.852245</v>
+      </c>
+      <c r="I9">
+        <v>0.04523399901256879</v>
+      </c>
+      <c r="J9">
+        <v>0.06146641072641139</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2495786666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.7487360000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1065402569265446</v>
+      </c>
+      <c r="P9">
+        <v>0.1517278246777788</v>
+      </c>
+      <c r="Q9">
+        <v>0.07090072359111112</v>
+      </c>
+      <c r="R9">
+        <v>0.63810651232</v>
+      </c>
+      <c r="S9">
+        <v>0.004819241876614144</v>
+      </c>
+      <c r="T9">
+        <v>0.009326164790269289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2840816666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.852245</v>
+      </c>
+      <c r="I10">
+        <v>0.04523399901256879</v>
+      </c>
+      <c r="J10">
+        <v>0.06146641072641139</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.986215</v>
+      </c>
+      <c r="N10">
+        <v>3.97243</v>
+      </c>
+      <c r="O10">
+        <v>0.8478763799711385</v>
+      </c>
+      <c r="P10">
+        <v>0.8049942337282417</v>
+      </c>
+      <c r="Q10">
+        <v>0.5642472675583333</v>
+      </c>
+      <c r="R10">
+        <v>3.38548360535</v>
+      </c>
+      <c r="S10">
+        <v>0.03835283933439488</v>
+      </c>
+      <c r="T10">
+        <v>0.04948010620273292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5549943333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.664983</v>
+      </c>
+      <c r="I11">
+        <v>0.08837111321033719</v>
+      </c>
+      <c r="J11">
+        <v>0.1200834606603648</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1067825</v>
+      </c>
+      <c r="N11">
+        <v>0.213565</v>
+      </c>
+      <c r="O11">
+        <v>0.04558336310231677</v>
+      </c>
+      <c r="P11">
+        <v>0.04327794159397949</v>
+      </c>
+      <c r="Q11">
+        <v>0.05926368239916667</v>
+      </c>
+      <c r="R11">
+        <v>0.355582094395</v>
+      </c>
+      <c r="S11">
+        <v>0.004028252541222742</v>
+      </c>
+      <c r="T11">
+        <v>0.005196964996862202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5549943333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.664983</v>
+      </c>
+      <c r="I12">
+        <v>0.08837111321033719</v>
+      </c>
+      <c r="J12">
+        <v>0.1200834606603648</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2495786666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.7487360000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1065402569265446</v>
+      </c>
+      <c r="P12">
+        <v>0.1517278246777788</v>
+      </c>
+      <c r="Q12">
+        <v>0.1385147457208889</v>
+      </c>
+      <c r="R12">
+        <v>1.246632711488</v>
+      </c>
+      <c r="S12">
+        <v>0.009415081106314086</v>
+      </c>
+      <c r="T12">
+        <v>0.01822000226577678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5549943333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.664983</v>
+      </c>
+      <c r="I13">
+        <v>0.08837111321033719</v>
+      </c>
+      <c r="J13">
+        <v>0.1200834606603648</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.986215</v>
+      </c>
+      <c r="N13">
+        <v>3.97243</v>
+      </c>
+      <c r="O13">
+        <v>0.8478763799711385</v>
+      </c>
+      <c r="P13">
+        <v>0.8049942337282417</v>
+      </c>
+      <c r="Q13">
+        <v>1.102338069781667</v>
+      </c>
+      <c r="R13">
+        <v>6.61402841869</v>
+      </c>
+      <c r="S13">
+        <v>0.07492777956280036</v>
+      </c>
+      <c r="T13">
+        <v>0.09666649339772584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.975591</v>
+      </c>
+      <c r="H14">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J14">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1067825</v>
+      </c>
+      <c r="N14">
+        <v>0.213565</v>
+      </c>
+      <c r="O14">
+        <v>0.04558336310231677</v>
+      </c>
+      <c r="P14">
+        <v>0.04327794159397949</v>
+      </c>
+      <c r="Q14">
+        <v>0.5313060459575</v>
+      </c>
+      <c r="R14">
+        <v>2.12522418383</v>
+      </c>
+      <c r="S14">
+        <v>0.03611376889103673</v>
+      </c>
+      <c r="T14">
+        <v>0.03106094448496183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.975591</v>
+      </c>
+      <c r="H15">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J15">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2495786666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.7487360000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1065402569265446</v>
+      </c>
+      <c r="P15">
+        <v>0.1517278246777788</v>
+      </c>
+      <c r="Q15">
+        <v>1.241801367658667</v>
+      </c>
+      <c r="R15">
+        <v>7.450808205952</v>
+      </c>
+      <c r="S15">
+        <v>0.08440733536050471</v>
+      </c>
+      <c r="T15">
+        <v>0.1088963422372223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.975591</v>
+      </c>
+      <c r="H16">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J16">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.986215</v>
+      </c>
+      <c r="N16">
+        <v>3.97243</v>
+      </c>
+      <c r="O16">
+        <v>0.8478763799711385</v>
+      </c>
+      <c r="P16">
+        <v>0.8049942337282417</v>
+      </c>
+      <c r="Q16">
+        <v>9.882593478064999</v>
+      </c>
+      <c r="R16">
+        <v>39.53037391226</v>
+      </c>
+      <c r="S16">
+        <v>0.671736562432145</v>
+      </c>
+      <c r="T16">
+        <v>0.57775116568912</v>
       </c>
     </row>
   </sheetData>
